--- a/Ma Tara.xlsx
+++ b/Ma Tara.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B6411B-BA21-4DB7-9D77-317CF28BEE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E827D5-D0E5-4F97-B569-7ED4CB23589D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>Works</t>
   </si>
@@ -243,13 +243,28 @@
   </si>
   <si>
     <t>work</t>
+  </si>
+  <si>
+    <t>#22b3c1</t>
+  </si>
+  <si>
+    <t>UNDER SELECTION</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m17!1m12!1m3!1d3033.4774298938155!2d88.2275344753046!3d22.71234307939236!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m2!1m1!2zMjLCsDQyJzQ0LjQiTiA4OMKwMTMnNDguNCJF!5e1!3m2!1sen!2sin!4v1738907799270!5m2!1sen!2sin" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m17!1m12!1m3!1d3033.4774298938155!2d88.2275344753046!3d22.71234307939236!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m2!1m1!2zMjLCsDQyJzQ0LjQiTiA4OMKwMTMnNDguNCJF!5e1!3m2!1sen!2sin!4v1738908597315!5m2!1sen!2sin" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +309,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -420,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,6 +478,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -743,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -755,7 +786,7 @@
     <col min="4" max="4" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -939,7 +970,7 @@
       <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="22" t="s">
         <v>61</v>
       </c>
     </row>
@@ -954,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="G14" t="s">
+      <c r="G14" s="23" t="s">
         <v>63</v>
       </c>
     </row>
@@ -969,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="G15" t="s">
+      <c r="G15" s="23" t="s">
         <v>64</v>
       </c>
     </row>
@@ -984,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="G16" t="s">
+      <c r="G16" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -999,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="G17" t="s">
+      <c r="G17" s="24" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1016,11 +1047,11 @@
       <c r="D18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1031,6 +1062,9 @@
         <v>7</v>
       </c>
       <c r="D19" s="8"/>
+      <c r="G19" s="25" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
@@ -1074,9 +1108,12 @@
   <hyperlinks>
     <hyperlink ref="F13" r:id="rId1" xr:uid="{D046BB54-383B-49BE-B7BE-75665337C35A}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{76276744-866C-40C3-87BD-0FC92B9E22CD}"/>
+    <hyperlink ref="G14" r:id="rId3" xr:uid="{09A52B72-7F81-4AC0-BD25-91B902328D27}"/>
+    <hyperlink ref="G15" r:id="rId4" xr:uid="{6BED3688-ACCA-4EA8-922A-2D0A53B4CC53}"/>
+    <hyperlink ref="G13" r:id="rId5" xr:uid="{7994028F-FB0F-490C-A838-252413A4F330}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1085,7 +1122,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,10 +1176,10 @@
       <c r="F2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="19">
         <v>1</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>54</v>
       </c>
       <c r="K2" s="16"/>
@@ -1165,10 +1202,10 @@
       <c r="F3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="19">
         <v>2</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>55</v>
       </c>
       <c r="K3" s="16"/>
@@ -1189,10 +1226,10 @@
       <c r="F4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="19">
         <v>3</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>56</v>
       </c>
       <c r="K4" s="16"/>
@@ -1210,9 +1247,6 @@
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="16"/>
-      <c r="F5" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="H5" s="14">
         <v>4</v>
       </c>
@@ -1257,10 +1291,10 @@
       <c r="F7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="19">
         <v>6</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>59</v>
       </c>
       <c r="K7" s="16"/>
@@ -1271,9 +1305,6 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="F8" s="11" t="s">
@@ -1344,6 +1375,9 @@
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
+      <c r="F12" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -1356,6 +1390,9 @@
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
+      <c r="F13" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -1365,16 +1402,21 @@
       <c r="B14" s="11" t="s">
         <v>48</v>
       </c>
+      <c r="I14" s="27" t="s">
+        <v>78</v>
+      </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="16"/>
+      <c r="I15" s="26" t="s">
+        <v>76</v>
+      </c>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -1383,7 +1425,12 @@
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I16" s="16"/>
+      <c r="B16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>77</v>
+      </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
